--- a/src/main/resources/template/excel/export/activitySpecialPackageGoodsSkuCodeTemplate.xlsx
+++ b/src/main/resources/template/excel/export/activitySpecialPackageGoodsSkuCodeTemplate.xlsx
@@ -30,9 +30,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>特价打包</t>
+    <t>特价打包数量</t>
     <rPh sb="2" eb="3">
       <t>da'b</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'l</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -422,7 +425,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>偶数特价：</a:t>
+            <a:t>特价打包：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
@@ -452,7 +455,27 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
             </a:rPr>
-            <a:t>，商品偶数特价优惠价格。</a:t>
+            <a:t>，商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>特价打包数量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" charset="-122"/>
+            </a:rPr>
+            <a:t>。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -752,7 +775,7 @@
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
